--- a/Notes/Data.xlsx
+++ b/Notes/Data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="3" r:id="rId1"/>
     <sheet name="Units" sheetId="2" r:id="rId2"/>
     <sheet name="WorldCountries" sheetId="1" r:id="rId3"/>
+    <sheet name="CountryUnitArmyCode" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
   <si>
     <t>US</t>
   </si>
@@ -245,6 +246,162 @@
   </si>
   <si>
     <t>jobGdpMultiplier</t>
+  </si>
+  <si>
+    <t>unit001</t>
+  </si>
+  <si>
+    <t>unit002</t>
+  </si>
+  <si>
+    <t>unit003</t>
+  </si>
+  <si>
+    <t>unit004</t>
+  </si>
+  <si>
+    <t>unit005</t>
+  </si>
+  <si>
+    <t>unit006</t>
+  </si>
+  <si>
+    <t>unit007</t>
+  </si>
+  <si>
+    <t>UnitCode</t>
+  </si>
+  <si>
+    <t>ArmyCode</t>
+  </si>
+  <si>
+    <t>unit008</t>
+  </si>
+  <si>
+    <t>unit009</t>
+  </si>
+  <si>
+    <t>unit010</t>
+  </si>
+  <si>
+    <t>unit011</t>
+  </si>
+  <si>
+    <t>unit012</t>
+  </si>
+  <si>
+    <t>unit013</t>
+  </si>
+  <si>
+    <t>unit014</t>
+  </si>
+  <si>
+    <t>unit015</t>
+  </si>
+  <si>
+    <t>unit016</t>
+  </si>
+  <si>
+    <t>unit017</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Stock Exchange</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Observatory</t>
+  </si>
+  <si>
+    <t>Space Station</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Multiplex</t>
+  </si>
+  <si>
+    <t>Apartment Block</t>
+  </si>
+  <si>
+    <t>Apartment Complex</t>
+  </si>
+  <si>
+    <t>Condominiums</t>
+  </si>
+  <si>
+    <t>High Rise</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>housingCapacity</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>Fishery</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Husbandry</t>
+  </si>
+  <si>
+    <t>Hydro Dam</t>
+  </si>
+  <si>
+    <t>GMO Lab</t>
+  </si>
+  <si>
+    <t>Barracks</t>
+  </si>
+  <si>
+    <t>Weapons Factory</t>
+  </si>
+  <si>
+    <t>Naval Base</t>
+  </si>
+  <si>
+    <t>Air Base</t>
+  </si>
+  <si>
+    <t>Special Forces</t>
+  </si>
+  <si>
+    <t>Satelitte Uplink</t>
+  </si>
+  <si>
+    <t>baseFoodGrowth</t>
   </si>
 </sst>
 </file>
@@ -300,13 +457,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,26 +746,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.5" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -619,19 +778,19 @@
       <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -643,13 +802,13 @@
       <c r="K1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -660,19 +819,19 @@
       <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
         <v>1000</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>1000</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>1000</v>
       </c>
       <c r="I2">
@@ -684,14 +843,843 @@
       <c r="K2" t="s">
         <v>72</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>50000</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1.0000001000000001</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.000006</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="H5" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>200000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1.0035000000000001</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>200</v>
+      </c>
+      <c r="F15" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="6">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="6">
+        <v>100000</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="6">
+        <v>150</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2000</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="6">
+        <v>250000</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>200000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="6">
+        <v>40000000</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="6">
+        <v>10</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>100</v>
+      </c>
+      <c r="F21" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>50000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>50000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="6">
+        <v>375</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="6">
+        <v>10000</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="G23" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="H23" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="6">
+        <v>125000</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>200000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="G24" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="H24" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="6">
+        <v>7500000</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="F25" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="G25" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="H25" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="6">
+        <v>200000000</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -1436,9 +2424,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1446,26 +2436,78 @@
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1479,8 +2521,11 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="6">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1493,6 +2538,166 @@
       </c>
       <c r="E3" t="s">
         <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/Data.xlsx
+++ b/Notes/Data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="3" r:id="rId1"/>
-    <sheet name="Units" sheetId="2" r:id="rId2"/>
-    <sheet name="WorldCountries" sheetId="1" r:id="rId3"/>
-    <sheet name="CountryUnitArmyCode" sheetId="4" r:id="rId4"/>
+    <sheet name="BuildingType" sheetId="5" r:id="rId2"/>
+    <sheet name="Units" sheetId="2" r:id="rId3"/>
+    <sheet name="WorldCountries" sheetId="1" r:id="rId4"/>
+    <sheet name="CountryUnitArmyCode" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="132">
   <si>
     <t>US</t>
   </si>
@@ -402,6 +403,27 @@
   </si>
   <si>
     <t>baseFoodGrowth</t>
+  </si>
+  <si>
+    <t>buildingTypeCode</t>
+  </si>
+  <si>
+    <t>buildingTypeName</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Military</t>
   </si>
 </sst>
 </file>
@@ -457,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -465,7 +487,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,23 +774,23 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -773,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>62</v>
@@ -793,16 +818,16 @@
       <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M1" s="7" t="s">
@@ -819,37 +844,37 @@
       <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
         <v>1000</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>1000</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <v>1000</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -860,37 +885,37 @@
       <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>100</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>50000</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="8">
         <v>50000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="8">
         <v>50000</v>
       </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
         <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="10">
         <v>1.0000001000000001</v>
       </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
         <v>50</v>
       </c>
     </row>
@@ -901,37 +926,37 @@
       <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
         <v>2000</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>1000000</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>1000000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="8">
         <v>1000000</v>
       </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
         <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="10">
         <v>1.000006</v>
       </c>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
         <v>1000</v>
       </c>
     </row>
@@ -942,37 +967,37 @@
       <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
         <v>100000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>100000000</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="8">
         <v>100000000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <v>100000000</v>
       </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
         <v>4</v>
       </c>
       <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
         <v>200000</v>
       </c>
     </row>
@@ -983,37 +1008,37 @@
       <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>200000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>500000000</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="8">
         <v>500000000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <v>500000000</v>
       </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
         <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="10">
         <v>1.0035000000000001</v>
       </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
         <v>1000000</v>
       </c>
     </row>
@@ -1024,37 +1049,37 @@
       <c r="B7" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>1000000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>10000000000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="8">
         <v>10000000000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="8">
         <v>10000000000</v>
       </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
         <v>6</v>
       </c>
       <c r="K7" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
         <v>10000</v>
       </c>
     </row>
@@ -1065,8 +1090,38 @@
       <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="10">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1076,8 +1131,38 @@
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>100</v>
+      </c>
+      <c r="F9" s="8">
+        <v>50000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>50000</v>
+      </c>
+      <c r="H9" s="8">
+        <v>50000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1.0000001000000001</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1087,8 +1172,38 @@
       <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1.000006</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1098,8 +1213,38 @@
       <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F11" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="G11" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
+        <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1109,8 +1254,38 @@
       <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>200000</v>
+      </c>
+      <c r="F12" s="8">
+        <v>500000000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>500000000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>500000000</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1.0035000000000001</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1120,8 +1295,38 @@
       <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="6">
-        <v>0</v>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10000000000</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10000000000</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10000000000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1131,37 +1336,37 @@
       <c r="B14" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8">
         <v>8</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
         <v>1000</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>1000</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="8">
         <v>1000</v>
       </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
         <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1172,37 +1377,37 @@
       <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
         <v>200</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>100000</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="8">
         <v>100000</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="8">
         <v>100000</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
         <v>2</v>
       </c>
       <c r="K15" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="10">
         <v>150</v>
       </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1213,37 +1418,37 @@
       <c r="B16" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
         <v>2000</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>1000000</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <v>1000000</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="8">
         <v>1000000</v>
       </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8">
         <v>3</v>
       </c>
       <c r="K16" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="10">
         <v>2000</v>
       </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1254,37 +1459,37 @@
       <c r="B17" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
         <v>100000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>100000000</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="8">
         <v>100000000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="8">
         <v>100000000</v>
       </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
         <v>4</v>
       </c>
       <c r="K17" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="10">
         <v>250000</v>
       </c>
-      <c r="M17" s="6">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6">
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
         <v>10000</v>
       </c>
     </row>
@@ -1295,37 +1500,37 @@
       <c r="B18" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
         <v>200000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="8">
         <v>500000000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="8">
         <v>500000000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="8">
         <v>500000000</v>
       </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8">
         <v>5</v>
       </c>
       <c r="K18" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="10">
         <v>1500000</v>
       </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
         <v>50000</v>
       </c>
     </row>
@@ -1336,37 +1541,37 @@
       <c r="B19" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
         <v>1000000</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="8">
         <v>10000000000</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="8">
         <v>10000000000</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="8">
         <v>10000000000</v>
       </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
         <v>6</v>
       </c>
       <c r="K19" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="10">
         <v>40000000</v>
       </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8">
         <v>100000</v>
       </c>
     </row>
@@ -1377,37 +1582,37 @@
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
         <v>5</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="8">
         <v>2000</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="8">
         <v>2000</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="8">
         <v>2000</v>
       </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
         <v>1</v>
       </c>
       <c r="K20" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="10">
         <v>10</v>
       </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1418,37 +1623,37 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
         <v>100</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>50000</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="8">
         <v>50000</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="8">
         <v>50000</v>
       </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
         <v>2</v>
       </c>
       <c r="K21" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="10">
         <v>375</v>
       </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1459,37 +1664,37 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
         <v>2000</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8">
         <v>1000000</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="8">
         <v>1000000</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="8">
         <v>1000000</v>
       </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8">
         <v>3</v>
       </c>
       <c r="K22" t="s">
         <v>124</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="10">
         <v>10000</v>
       </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="N22" s="6">
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1500,37 +1705,37 @@
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
         <v>10000</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="8">
         <v>10000000</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="8">
         <v>10000000</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="8">
         <v>10000000</v>
       </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
         <v>4</v>
       </c>
       <c r="K23" t="s">
         <v>124</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="10">
         <v>125000</v>
       </c>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="6">
+      <c r="M23" s="8">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8">
         <v>500</v>
       </c>
     </row>
@@ -1541,37 +1746,37 @@
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
         <v>200000</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="8">
         <v>500000000</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="8">
         <v>500000000</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="8">
         <v>500000000</v>
       </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
         <v>5</v>
       </c>
       <c r="K24" t="s">
         <v>124</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="10">
         <v>7500000</v>
       </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="M24" s="8">
+        <v>1</v>
+      </c>
+      <c r="N24" s="8">
         <v>10000</v>
       </c>
     </row>
@@ -1582,37 +1787,37 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
         <v>1000000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="8">
         <v>10000000000</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="8">
         <v>10000000000</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="8">
         <v>10000000000</v>
       </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8">
         <v>6</v>
       </c>
       <c r="K25" t="s">
         <v>124</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="10">
         <v>200000000</v>
       </c>
-      <c r="M25" s="6">
-        <v>1</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="M25" s="8">
+        <v>1</v>
+      </c>
+      <c r="N25" s="8">
         <v>10000</v>
       </c>
     </row>
@@ -1623,8 +1828,38 @@
       <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="D26">
-        <v>0</v>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1634,8 +1869,38 @@
       <c r="B27" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="6">
-        <v>0</v>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>100</v>
+      </c>
+      <c r="F27" s="8">
+        <v>50000</v>
+      </c>
+      <c r="G27" s="8">
+        <v>50000</v>
+      </c>
+      <c r="H27" s="8">
+        <v>50000</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="10">
+        <v>1.0000001000000001</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1</v>
+      </c>
+      <c r="N27" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1645,8 +1910,38 @@
       <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="6">
-        <v>0</v>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="10">
+        <v>1.000006</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1656,8 +1951,38 @@
       <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="6">
-        <v>0</v>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F29" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="G29" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="H29" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="10">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1</v>
+      </c>
+      <c r="N29" s="8">
+        <v>200000</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1667,8 +1992,38 @@
       <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="6">
-        <v>0</v>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>200000</v>
+      </c>
+      <c r="F30" s="8">
+        <v>500000000</v>
+      </c>
+      <c r="G30" s="8">
+        <v>500000000</v>
+      </c>
+      <c r="H30" s="8">
+        <v>500000000</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1.0035000000000001</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8">
+        <v>1000000</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1678,8 +2033,38 @@
       <c r="B31" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="6">
-        <v>0</v>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="F31" s="8">
+        <v>10000000000</v>
+      </c>
+      <c r="G31" s="8">
+        <v>10000000000</v>
+      </c>
+      <c r="H31" s="8">
+        <v>10000000000</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1689,6 +2074,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -2422,7 +2873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -2546,7 +2997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>

--- a/Notes/Data.xlsx
+++ b/Notes/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="137">
   <si>
     <t>US</t>
   </si>
@@ -424,6 +424,21 @@
   </si>
   <si>
     <t>Military</t>
+  </si>
+  <si>
+    <t>statAdder</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Aircraft Carrier</t>
+  </si>
+  <si>
+    <t>unit018</t>
   </si>
 </sst>
 </file>
@@ -771,29 +786,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -830,14 +846,17 @@
       <c r="L1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -871,14 +890,17 @@
       <c r="L2" s="10">
         <v>1</v>
       </c>
-      <c r="M2" s="8">
-        <v>1</v>
+      <c r="M2" s="10">
+        <v>0</v>
       </c>
       <c r="N2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -912,14 +934,17 @@
       <c r="L3" s="10">
         <v>1.0000001000000001</v>
       </c>
-      <c r="M3" s="8">
-        <v>1</v>
+      <c r="M3" s="10">
+        <v>0</v>
       </c>
       <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -953,14 +978,17 @@
       <c r="L4" s="10">
         <v>1.000006</v>
       </c>
-      <c r="M4" s="8">
-        <v>1</v>
+      <c r="M4" s="10">
+        <v>0</v>
       </c>
       <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -994,14 +1022,17 @@
       <c r="L5" s="10">
         <v>1</v>
       </c>
-      <c r="M5" s="8">
-        <v>1</v>
+      <c r="M5" s="10">
+        <v>0</v>
       </c>
       <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
         <v>200000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1035,14 +1066,17 @@
       <c r="L6" s="10">
         <v>1.0035000000000001</v>
       </c>
-      <c r="M6" s="8">
-        <v>1</v>
+      <c r="M6" s="10">
+        <v>0</v>
       </c>
       <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -1076,14 +1110,17 @@
       <c r="L7" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M7" s="8">
-        <v>1</v>
+      <c r="M7" s="10">
+        <v>0</v>
       </c>
       <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1117,14 +1154,17 @@
       <c r="L8" s="10">
         <v>1</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
+      <c r="M8" s="10">
+        <v>0</v>
       </c>
       <c r="N8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -1158,14 +1198,17 @@
       <c r="L9" s="10">
         <v>1.0000001000000001</v>
       </c>
-      <c r="M9" s="8">
-        <v>1</v>
+      <c r="M9" s="10">
+        <v>0</v>
       </c>
       <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1199,14 +1242,17 @@
       <c r="L10" s="10">
         <v>1.000006</v>
       </c>
-      <c r="M10" s="8">
-        <v>1</v>
+      <c r="M10" s="10">
+        <v>0</v>
       </c>
       <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1240,14 +1286,17 @@
       <c r="L11" s="10">
         <v>1</v>
       </c>
-      <c r="M11" s="8">
-        <v>1</v>
+      <c r="M11" s="10">
+        <v>0</v>
       </c>
       <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8">
         <v>200000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -1281,14 +1330,17 @@
       <c r="L12" s="10">
         <v>1.0035000000000001</v>
       </c>
-      <c r="M12" s="8">
-        <v>1</v>
+      <c r="M12" s="10">
+        <v>0</v>
       </c>
       <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -1322,14 +1374,17 @@
       <c r="L13" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M13" s="8">
-        <v>1</v>
+      <c r="M13" s="10">
+        <v>0</v>
       </c>
       <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -1363,14 +1418,17 @@
       <c r="L14" s="10">
         <v>1</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="10">
         <v>1</v>
       </c>
       <c r="N14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -1402,16 +1460,19 @@
         <v>111</v>
       </c>
       <c r="L15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
         <v>150</v>
       </c>
-      <c r="M15" s="8">
-        <v>1</v>
-      </c>
       <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -1443,16 +1504,19 @@
         <v>111</v>
       </c>
       <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
         <v>2000</v>
       </c>
-      <c r="M16" s="8">
-        <v>1</v>
-      </c>
       <c r="N16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -1484,16 +1548,19 @@
         <v>111</v>
       </c>
       <c r="L17" s="10">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10">
         <v>250000</v>
       </c>
-      <c r="M17" s="8">
-        <v>1</v>
-      </c>
       <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -1525,16 +1592,19 @@
         <v>111</v>
       </c>
       <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
         <v>1500000</v>
       </c>
-      <c r="M18" s="8">
-        <v>1</v>
-      </c>
       <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1566,16 +1636,19 @@
         <v>111</v>
       </c>
       <c r="L19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
         <v>40000000</v>
       </c>
-      <c r="M19" s="8">
-        <v>1</v>
-      </c>
       <c r="N19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8">
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -1607,16 +1680,19 @@
         <v>124</v>
       </c>
       <c r="L20" s="10">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10">
         <v>10</v>
       </c>
-      <c r="M20" s="8">
-        <v>1</v>
-      </c>
       <c r="N20" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -1648,16 +1724,19 @@
         <v>124</v>
       </c>
       <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10">
         <v>375</v>
       </c>
-      <c r="M21" s="8">
-        <v>1</v>
-      </c>
       <c r="N21" s="8">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -1689,16 +1768,19 @@
         <v>124</v>
       </c>
       <c r="L22" s="10">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10">
         <v>10000</v>
       </c>
-      <c r="M22" s="8">
-        <v>1</v>
-      </c>
       <c r="N22" s="8">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -1730,16 +1812,19 @@
         <v>124</v>
       </c>
       <c r="L23" s="10">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10">
         <v>125000</v>
       </c>
-      <c r="M23" s="8">
-        <v>1</v>
-      </c>
       <c r="N23" s="8">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -1771,16 +1856,19 @@
         <v>124</v>
       </c>
       <c r="L24" s="10">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10">
         <v>7500000</v>
       </c>
-      <c r="M24" s="8">
-        <v>1</v>
-      </c>
       <c r="N24" s="8">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -1812,16 +1900,19 @@
         <v>124</v>
       </c>
       <c r="L25" s="10">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10">
         <v>200000000</v>
       </c>
-      <c r="M25" s="8">
-        <v>1</v>
-      </c>
       <c r="N25" s="8">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -1855,14 +1946,17 @@
       <c r="L26" s="10">
         <v>1</v>
       </c>
-      <c r="M26" s="8">
-        <v>1</v>
+      <c r="M26" s="10">
+        <v>0</v>
       </c>
       <c r="N26" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -1896,14 +1990,17 @@
       <c r="L27" s="10">
         <v>1.0000001000000001</v>
       </c>
-      <c r="M27" s="8">
-        <v>1</v>
+      <c r="M27" s="10">
+        <v>0</v>
       </c>
       <c r="N27" s="8">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -1937,14 +2034,17 @@
       <c r="L28" s="10">
         <v>1.000006</v>
       </c>
-      <c r="M28" s="8">
-        <v>1</v>
+      <c r="M28" s="10">
+        <v>0</v>
       </c>
       <c r="N28" s="8">
+        <v>1</v>
+      </c>
+      <c r="O28" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -1978,14 +2078,17 @@
       <c r="L29" s="10">
         <v>1</v>
       </c>
-      <c r="M29" s="8">
-        <v>1</v>
+      <c r="M29" s="10">
+        <v>0</v>
       </c>
       <c r="N29" s="8">
+        <v>1</v>
+      </c>
+      <c r="O29" s="8">
         <v>200000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -2019,14 +2122,17 @@
       <c r="L30" s="10">
         <v>1.0035000000000001</v>
       </c>
-      <c r="M30" s="8">
-        <v>1</v>
+      <c r="M30" s="10">
+        <v>0</v>
       </c>
       <c r="N30" s="8">
+        <v>1</v>
+      </c>
+      <c r="O30" s="8">
         <v>1000000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -2060,10 +2166,13 @@
       <c r="L31" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M31" s="8">
-        <v>1</v>
+      <c r="M31" s="10">
+        <v>0</v>
       </c>
       <c r="N31" s="8">
+        <v>1</v>
+      </c>
+      <c r="O31" s="8">
         <v>10000</v>
       </c>
     </row>
@@ -2083,7 +2192,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,7 +2262,7 @@
     <col min="5" max="6" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9" style="4"/>
     <col min="10" max="10" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2883,11 +2992,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -2999,156 +3108,225 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
       <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/Data.xlsx
+++ b/Notes/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="28800" windowHeight="12420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="138">
   <si>
     <t>US</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>unit018</t>
+  </si>
+  <si>
+    <t>isActive</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,63 +2187,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/Notes/Data.xlsx
+++ b/Notes/Data.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="3" r:id="rId1"/>
     <sheet name="BuildingType" sheetId="5" r:id="rId2"/>
     <sheet name="Units" sheetId="2" r:id="rId3"/>
-    <sheet name="WorldCountries" sheetId="1" r:id="rId4"/>
-    <sheet name="CountryUnitArmyCode" sheetId="4" r:id="rId5"/>
+    <sheet name="UnitType" sheetId="6" r:id="rId4"/>
+    <sheet name="WorldCountries" sheetId="1" r:id="rId5"/>
+    <sheet name="CountryUnitArmyCode" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="146">
   <si>
     <t>US</t>
   </si>
@@ -75,9 +76,6 @@
     <t>siege</t>
   </si>
   <si>
-    <t>isUnlocked</t>
-  </si>
-  <si>
     <t>Militia</t>
   </si>
   <si>
@@ -189,9 +187,6 @@
     <t>MI</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -442,6 +437,36 @@
   </si>
   <si>
     <t>isActive</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Naval</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>unitTypeCode</t>
+  </si>
+  <si>
+    <t>unitTypeName</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>unlocked</t>
   </si>
 </sst>
 </file>
@@ -497,18 +522,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,1382 +824,1382 @@
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>1</v>
-      </c>
-      <c r="O2" s="8">
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
+        <v>69</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <v>100</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>50000</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>50000</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>50000</v>
       </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="10">
+        <v>70</v>
+      </c>
+      <c r="L3" s="8">
         <v>1.0000001000000001</v>
       </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>1</v>
-      </c>
-      <c r="O3" s="8">
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
+        <v>69</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>2000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>1000000</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>1000000</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>1000000</v>
       </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="10">
+        <v>70</v>
+      </c>
+      <c r="L4" s="8">
         <v>1.000006</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1</v>
-      </c>
-      <c r="O4" s="8">
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
+        <v>69</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>100000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>100000000</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>100000000</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>100000000</v>
       </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="8">
+        <v>70</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <v>200000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>500000000</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>500000000</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>500000000</v>
       </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="10">
+        <v>70</v>
+      </c>
+      <c r="L6" s="8">
         <v>1.0035000000000001</v>
       </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1</v>
-      </c>
-      <c r="O6" s="8">
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
+        <v>69</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
         <v>1000000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>10000000000</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>10000000000</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>10000000000</v>
       </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="10">
+        <v>70</v>
+      </c>
+      <c r="L7" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <v>1000</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>1000</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>1000</v>
       </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
+        <v>70</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
+        <v>53</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
         <v>100</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>50000</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>50000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>50000</v>
       </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="10">
+        <v>70</v>
+      </c>
+      <c r="L9" s="8">
         <v>1.0000001000000001</v>
       </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
         <v>2000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>1000000</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>1000000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>1000000</v>
       </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="10">
+        <v>70</v>
+      </c>
+      <c r="L10" s="8">
         <v>1.000006</v>
       </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
         <v>100000</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>100000000</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>100000000</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>100000000</v>
       </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8">
+        <v>70</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>200000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>500000000</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>500000000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>500000000</v>
       </c>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="10">
+        <v>70</v>
+      </c>
+      <c r="L12" s="8">
         <v>1.0035000000000001</v>
       </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>1000000</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>10000000000</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>10000000000</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>10000000000</v>
       </c>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="10">
+        <v>70</v>
+      </c>
+      <c r="L13" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="8">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="10">
-        <v>1</v>
-      </c>
-      <c r="M14" s="10">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
-      <c r="O14" s="8">
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>200</v>
+      </c>
+      <c r="F15" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="6">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="6">
+        <v>100000</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>200</v>
-      </c>
-      <c r="F15" s="8">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="8">
-        <v>100000</v>
-      </c>
-      <c r="H15" s="8">
-        <v>100000</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1</v>
-      </c>
-      <c r="M15" s="10">
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
         <v>150</v>
       </c>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8">
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
         <v>2000</v>
       </c>
-      <c r="F16" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="10">
-        <v>1</v>
-      </c>
-      <c r="M16" s="10">
-        <v>2000</v>
-      </c>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8">
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>100000</v>
-      </c>
-      <c r="F17" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="G17" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="H17" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="10">
-        <v>1</v>
-      </c>
-      <c r="M17" s="10">
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
         <v>250000</v>
       </c>
-      <c r="N17" s="8">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8">
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>200000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>200000</v>
-      </c>
-      <c r="F18" s="8">
-        <v>500000000</v>
-      </c>
-      <c r="G18" s="8">
-        <v>500000000</v>
-      </c>
-      <c r="H18" s="8">
-        <v>500000000</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8">
-        <v>5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="10">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10">
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
         <v>1500000</v>
       </c>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="8">
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
         <v>50000</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="F19" s="8">
-        <v>10000000000</v>
-      </c>
-      <c r="G19" s="8">
-        <v>10000000000</v>
-      </c>
-      <c r="H19" s="8">
-        <v>10000000000</v>
-      </c>
-      <c r="I19" s="8">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
-        <v>6</v>
-      </c>
-      <c r="K19" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10">
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
         <v>40000000</v>
       </c>
-      <c r="N19" s="8">
-        <v>1</v>
-      </c>
-      <c r="O19" s="8">
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
         <v>100000</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="8">
+        <v>52</v>
+      </c>
+      <c r="D20" s="6">
         <v>5</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>2000</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>2000</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>2000</v>
       </c>
-      <c r="I20" s="8">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="10">
-        <v>1</v>
-      </c>
-      <c r="M20" s="10">
+        <v>122</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
         <v>10</v>
       </c>
-      <c r="N20" s="8">
-        <v>1</v>
-      </c>
-      <c r="O20" s="8">
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
+        <v>52</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>100</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>50000</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>50000</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>50000</v>
       </c>
-      <c r="I21" s="8">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" s="10">
-        <v>1</v>
-      </c>
-      <c r="M21" s="10">
+        <v>122</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
         <v>375</v>
       </c>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="8">
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
+        <v>52</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>2000</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>1000000</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>1000000</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>1000000</v>
       </c>
-      <c r="I22" s="8">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="10">
-        <v>1</v>
-      </c>
-      <c r="M22" s="10">
+        <v>122</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
         <v>10000</v>
       </c>
-      <c r="N22" s="8">
-        <v>1</v>
-      </c>
-      <c r="O22" s="8">
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
+        <v>52</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
         <v>10000</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>10000000</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>10000000</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>10000000</v>
       </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8">
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
         <v>4</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" s="10">
-        <v>1</v>
-      </c>
-      <c r="M23" s="10">
+        <v>122</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
         <v>125000</v>
       </c>
-      <c r="N23" s="8">
-        <v>1</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
+        <v>52</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <v>200000</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>500000000</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>500000000</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <v>500000000</v>
       </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8">
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
         <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="10">
-        <v>1</v>
-      </c>
-      <c r="M24" s="10">
+        <v>122</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8">
         <v>7500000</v>
       </c>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8">
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
+        <v>52</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>1000000</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>10000000000</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>10000000000</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="6">
         <v>10000000000</v>
       </c>
-      <c r="I25" s="8">
-        <v>1</v>
-      </c>
-      <c r="J25" s="8">
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>124</v>
-      </c>
-      <c r="L25" s="10">
-        <v>1</v>
-      </c>
-      <c r="M25" s="10">
+        <v>122</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8">
         <v>200000000</v>
       </c>
-      <c r="N25" s="8">
-        <v>1</v>
-      </c>
-      <c r="O25" s="8">
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
+        <v>108</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
         <v>1000</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>1000</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>1000</v>
       </c>
-      <c r="I26" s="8">
-        <v>1</v>
-      </c>
-      <c r="J26" s="8">
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" s="10">
-        <v>1</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8">
-        <v>1</v>
-      </c>
-      <c r="O26" s="8">
+        <v>70</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
+        <v>108</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
         <v>100</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>50000</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>50000</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="6">
         <v>50000</v>
       </c>
-      <c r="I27" s="8">
-        <v>1</v>
-      </c>
-      <c r="J27" s="8">
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" s="10">
+        <v>70</v>
+      </c>
+      <c r="L27" s="8">
         <v>1.0000001000000001</v>
       </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
-        <v>1</v>
-      </c>
-      <c r="O27" s="8">
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
+        <v>108</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
         <v>2000</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>1000000</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>1000000</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>1000000</v>
       </c>
-      <c r="I28" s="8">
-        <v>1</v>
-      </c>
-      <c r="J28" s="8">
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" s="10">
+        <v>70</v>
+      </c>
+      <c r="L28" s="8">
         <v>1.000006</v>
       </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="8">
-        <v>1</v>
-      </c>
-      <c r="O28" s="8">
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
+        <v>108</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
         <v>100000</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>100000000</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>100000000</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>100000000</v>
       </c>
-      <c r="I29" s="8">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8">
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
         <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" s="10">
-        <v>1</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8">
-        <v>1</v>
-      </c>
-      <c r="O29" s="8">
+        <v>70</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
+        <v>108</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
         <v>200000</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>500000000</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>500000000</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="6">
         <v>500000000</v>
       </c>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
         <v>5</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="10">
+        <v>70</v>
+      </c>
+      <c r="L30" s="8">
         <v>1.0035000000000001</v>
       </c>
-      <c r="M30" s="10">
-        <v>0</v>
-      </c>
-      <c r="N30" s="8">
-        <v>1</v>
-      </c>
-      <c r="O30" s="8">
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
+        <v>108</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
         <v>1000000</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>10000000000</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>10000000000</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <v>10000000000</v>
       </c>
-      <c r="I31" s="8">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31" s="10">
+        <v>70</v>
+      </c>
+      <c r="L31" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M31" s="10">
-        <v>0</v>
-      </c>
-      <c r="N31" s="8">
-        <v>1</v>
-      </c>
-      <c r="O31" s="8">
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6">
         <v>10000</v>
       </c>
     </row>
@@ -2189,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,22 +2224,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>137</v>
+      <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2223,10 +2247,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2234,10 +2258,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2245,10 +2269,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2256,10 +2280,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2274,17 +2298,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2297,69 +2324,69 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
+        <v>136</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
         <v>0</v>
       </c>
       <c r="M2" t="b">
@@ -2368,37 +2395,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4">
+        <v>136</v>
+      </c>
+      <c r="E3" s="6">
         <v>19</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>19</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <v>5</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="6">
         <v>5</v>
       </c>
-      <c r="L3" s="4">
-        <v>0.1</v>
+      <c r="L3" s="6">
+        <v>1</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -2406,36 +2433,36 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>10</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>1000</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>5000</v>
       </c>
       <c r="M4" t="b">
@@ -2444,36 +2471,36 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4">
+        <v>136</v>
+      </c>
+      <c r="E5" s="6">
         <v>100000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>100000</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>20</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>100</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>30000</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>1000</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>1000</v>
       </c>
       <c r="M5" t="b">
@@ -2482,36 +2509,36 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4">
+        <v>136</v>
+      </c>
+      <c r="E6" s="6">
         <v>10000000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>10000000</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>50</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="6">
         <v>750</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <v>1000000</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="6">
         <v>1000000</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="6">
         <v>1000000</v>
       </c>
       <c r="M6" t="b">
@@ -2520,36 +2547,36 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4">
+        <v>136</v>
+      </c>
+      <c r="E7" s="6">
         <v>100000000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>100000000</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>100</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <v>1000</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>10000000</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <v>1000000</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
         <v>100000</v>
       </c>
       <c r="M7" t="b">
@@ -2558,36 +2585,36 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>10</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
         <v>10</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <v>10</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="6">
         <v>0</v>
       </c>
       <c r="M8" t="b">
@@ -2596,36 +2623,36 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6">
         <v>10000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>10000</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>20</v>
       </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
         <v>8000</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <v>1000</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="6">
         <v>2000</v>
       </c>
       <c r="M9" t="b">
@@ -2634,36 +2661,36 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6">
         <v>100000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>100000</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>100</v>
       </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
         <v>10000</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
         <v>100000</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="6">
         <v>1000</v>
       </c>
       <c r="M10" t="b">
@@ -2672,36 +2699,36 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6">
         <v>10000000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>10000000</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>1000</v>
       </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
         <v>1000000</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6">
         <v>1000000</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="6">
         <v>3000000</v>
       </c>
       <c r="M11" t="b">
@@ -2710,36 +2737,36 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6">
         <v>100000000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>100000000</v>
       </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>2000</v>
       </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
         <v>100000000</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <v>80000000</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="6">
         <v>50000000</v>
       </c>
       <c r="M12" t="b">
@@ -2748,36 +2775,36 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
       <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="4">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6">
         <v>10000</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>10000</v>
       </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <v>5</v>
       </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
         <v>10000</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="6">
         <v>10000</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="6">
         <v>1</v>
       </c>
       <c r="M13" t="b">
@@ -2786,36 +2813,36 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
       <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="4">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6">
         <v>100000</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <v>100000</v>
       </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>2</v>
       </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
         <v>100000</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="6">
         <v>10000</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="6">
         <v>1000</v>
       </c>
       <c r="M14" t="b">
@@ -2824,36 +2851,36 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="4">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6">
         <v>1000000</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="6">
         <v>1000000</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>20</v>
       </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
         <v>100000</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="6">
         <v>300000</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="6">
         <v>300000</v>
       </c>
       <c r="M15" t="b">
@@ -2862,36 +2889,36 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6">
         <v>10000000</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="6">
         <v>10000000</v>
       </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>50</v>
       </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
         <v>500000</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="6">
         <v>2000000</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="6">
         <v>2000000</v>
       </c>
       <c r="M16" t="b">
@@ -2900,36 +2927,36 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="4">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6">
         <v>100000000</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="6">
         <v>100000000</v>
       </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
         <v>5</v>
       </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
         <v>10000000</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="6">
         <v>100000</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="6">
         <v>20000000</v>
       </c>
       <c r="M17" t="b">
@@ -2938,36 +2965,36 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="4">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6">
         <v>1000000000</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="6">
         <v>1000000000</v>
       </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
         <v>10000</v>
       </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
         <v>10000000</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="6">
         <v>100000000</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="6">
         <v>10000000</v>
       </c>
       <c r="M18" t="b">
@@ -2976,26 +3003,116 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="E19" s="6">
+        <v>50000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="6">
+        <v>100</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="E20" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>100</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5</v>
+      </c>
+      <c r="K20" s="6">
+        <v>10</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>200000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>500</v>
+      </c>
+      <c r="K21" s="6">
+        <v>500</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3005,6 +3122,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -3018,75 +3207,75 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -3101,9 +3290,9 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="6">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4">
         <v>100000000</v>
       </c>
     </row>
@@ -3119,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3144,211 +3333,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/Data.xlsx
+++ b/Notes/Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\GitHub\WorldConqueror\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="28800" windowHeight="12420" tabRatio="781" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12420" tabRatio="781" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="OpinionCode" sheetId="7" r:id="rId6"/>
     <sheet name="CountryUnitArmyCode" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="501">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -461,552 +461,6 @@
     <t>unlocked</t>
   </si>
   <si>
-    <t xml:space="preserve">AE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZW </t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -1557,12 +1011,534 @@
   </si>
   <si>
     <t>Friends</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>ZW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3389,7 +3365,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,22 +4261,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V183"/>
+  <dimension ref="A1:Y183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4317,63 +4295,72 @@
         <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" t="s">
-        <v>325</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4432,10 +4419,19 @@
       <c r="V2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -4497,13 +4493,22 @@
       <c r="V3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4562,13 +4567,22 @@
       <c r="V4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="3">
+        <v>3</v>
+      </c>
+      <c r="X4" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>145</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4627,13 +4641,22 @@
       <c r="V5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4692,13 +4715,22 @@
       <c r="V6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="3">
+        <v>5</v>
+      </c>
+      <c r="X6" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4757,13 +4789,22 @@
       <c r="V7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4822,13 +4863,22 @@
       <c r="V8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="3">
+        <v>7</v>
+      </c>
+      <c r="X8" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4887,13 +4937,22 @@
       <c r="V9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>8</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4952,13 +5011,22 @@
       <c r="V10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="3">
+        <v>9</v>
+      </c>
+      <c r="X10" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>151</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5017,13 +5085,22 @@
       <c r="V11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5082,13 +5159,22 @@
       <c r="V12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="3">
+        <v>11</v>
+      </c>
+      <c r="X12" s="3">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5147,13 +5233,22 @@
       <c r="V13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>12</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5212,13 +5307,22 @@
       <c r="V14" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="3">
+        <v>13</v>
+      </c>
+      <c r="X14" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5277,13 +5381,22 @@
       <c r="V15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>14</v>
+      </c>
+      <c r="X15">
+        <v>14</v>
+      </c>
+      <c r="Y15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5342,13 +5455,22 @@
       <c r="V16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="3">
+        <v>15</v>
+      </c>
+      <c r="X16" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5407,13 +5529,22 @@
       <c r="V17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>16</v>
+      </c>
+      <c r="X17">
+        <v>16</v>
+      </c>
+      <c r="Y17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>158</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5472,13 +5603,22 @@
       <c r="V18" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="3">
+        <v>17</v>
+      </c>
+      <c r="X18" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>159</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5537,13 +5677,22 @@
       <c r="V19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>18</v>
+      </c>
+      <c r="X19">
+        <v>18</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>160</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5602,13 +5751,22 @@
       <c r="V20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="3">
+        <v>19</v>
+      </c>
+      <c r="X20" s="3">
+        <v>19</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5667,13 +5825,22 @@
       <c r="V21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>20</v>
+      </c>
+      <c r="X21">
+        <v>20</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>162</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5732,13 +5899,22 @@
       <c r="V22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="3">
+        <v>21</v>
+      </c>
+      <c r="X22" s="3">
+        <v>21</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>163</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -5797,13 +5973,22 @@
       <c r="V23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>22</v>
+      </c>
+      <c r="X23">
+        <v>22</v>
+      </c>
+      <c r="Y23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>344</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>164</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5862,13 +6047,22 @@
       <c r="V24" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="3">
+        <v>23</v>
+      </c>
+      <c r="X24" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5927,78 +6121,96 @@
       <c r="V25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>24</v>
+      </c>
+      <c r="X25">
+        <v>24</v>
+      </c>
+      <c r="Y25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="3">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3">
+        <v>25</v>
+      </c>
+      <c r="H26" s="3">
+        <v>25</v>
+      </c>
+      <c r="I26" s="3">
+        <v>25</v>
+      </c>
+      <c r="J26" s="3">
+        <v>25</v>
+      </c>
+      <c r="K26" s="3">
+        <v>25</v>
+      </c>
+      <c r="L26" s="3">
+        <v>25</v>
+      </c>
+      <c r="M26" s="3">
+        <v>25</v>
+      </c>
+      <c r="N26" s="3">
+        <v>25</v>
+      </c>
+      <c r="O26" s="3">
+        <v>25</v>
+      </c>
+      <c r="P26" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>25</v>
+      </c>
+      <c r="R26" s="3">
+        <v>25</v>
+      </c>
+      <c r="S26" s="3">
+        <v>25</v>
+      </c>
+      <c r="T26" s="3">
+        <v>25</v>
+      </c>
+      <c r="U26" s="3">
+        <v>25</v>
+      </c>
+      <c r="V26" s="3">
+        <v>25</v>
+      </c>
+      <c r="W26" s="3">
+        <v>25</v>
+      </c>
+      <c r="X26" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" t="s">
         <v>167</v>
-      </c>
-      <c r="B26" t="s">
-        <v>348</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3">
-        <v>25</v>
-      </c>
-      <c r="H26" s="3">
-        <v>25</v>
-      </c>
-      <c r="I26" s="3">
-        <v>25</v>
-      </c>
-      <c r="J26" s="3">
-        <v>25</v>
-      </c>
-      <c r="K26" s="3">
-        <v>25</v>
-      </c>
-      <c r="L26" s="3">
-        <v>25</v>
-      </c>
-      <c r="M26" s="3">
-        <v>25</v>
-      </c>
-      <c r="N26" s="3">
-        <v>25</v>
-      </c>
-      <c r="O26" s="3">
-        <v>25</v>
-      </c>
-      <c r="P26" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>25</v>
-      </c>
-      <c r="R26" s="3">
-        <v>25</v>
-      </c>
-      <c r="S26" s="3">
-        <v>25</v>
-      </c>
-      <c r="T26" s="3">
-        <v>25</v>
-      </c>
-      <c r="U26" s="3">
-        <v>25</v>
-      </c>
-      <c r="V26" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" t="s">
-        <v>349</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -6057,13 +6269,22 @@
       <c r="V27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>26</v>
+      </c>
+      <c r="X27">
+        <v>26</v>
+      </c>
+      <c r="Y27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>168</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -6122,13 +6343,22 @@
       <c r="V28" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="3">
+        <v>27</v>
+      </c>
+      <c r="X28" s="3">
+        <v>27</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>349</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>169</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -6187,13 +6417,22 @@
       <c r="V29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>28</v>
+      </c>
+      <c r="X29">
+        <v>28</v>
+      </c>
+      <c r="Y29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>170</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -6252,13 +6491,22 @@
       <c r="V30" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="3">
+        <v>29</v>
+      </c>
+      <c r="X30" s="3">
+        <v>29</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
+        <v>169</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -6317,13 +6565,22 @@
       <c r="V31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>30</v>
+      </c>
+      <c r="X31">
+        <v>30</v>
+      </c>
+      <c r="Y31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="B32" t="s">
-        <v>353</v>
+        <v>171</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -6382,13 +6639,22 @@
       <c r="V32" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="3">
+        <v>31</v>
+      </c>
+      <c r="X32" s="3">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>172</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -6447,13 +6713,22 @@
       <c r="V33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>32</v>
+      </c>
+      <c r="X33">
+        <v>32</v>
+      </c>
+      <c r="Y33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>173</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -6512,13 +6787,22 @@
       <c r="V34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="3">
+        <v>33</v>
+      </c>
+      <c r="X34" s="3">
+        <v>33</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s">
-        <v>356</v>
+        <v>174</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -6577,13 +6861,22 @@
       <c r="V35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>34</v>
+      </c>
+      <c r="X35">
+        <v>34</v>
+      </c>
+      <c r="Y35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s">
-        <v>357</v>
+        <v>175</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -6642,13 +6935,22 @@
       <c r="V36" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="3">
+        <v>35</v>
+      </c>
+      <c r="X36" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>358</v>
+        <v>176</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -6707,13 +7009,22 @@
       <c r="V37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>36</v>
+      </c>
+      <c r="X37">
+        <v>36</v>
+      </c>
+      <c r="Y37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s">
-        <v>359</v>
+        <v>177</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -6772,13 +7083,22 @@
       <c r="V38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="3">
+        <v>37</v>
+      </c>
+      <c r="X38" s="3">
+        <v>37</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>178</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6837,13 +7157,22 @@
       <c r="V39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>38</v>
+      </c>
+      <c r="X39">
+        <v>38</v>
+      </c>
+      <c r="Y39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>179</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6902,13 +7231,22 @@
       <c r="V40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="3">
+        <v>39</v>
+      </c>
+      <c r="X40" s="3">
+        <v>39</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>180</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6967,13 +7305,22 @@
       <c r="V41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>40</v>
+      </c>
+      <c r="X41">
+        <v>40</v>
+      </c>
+      <c r="Y41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>181</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -7032,13 +7379,22 @@
       <c r="V42" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="3">
+        <v>41</v>
+      </c>
+      <c r="X42" s="3">
+        <v>41</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -7097,13 +7453,22 @@
       <c r="V43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>42</v>
+      </c>
+      <c r="X43">
+        <v>42</v>
+      </c>
+      <c r="Y43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -7162,13 +7527,22 @@
       <c r="V44" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44" s="3">
+        <v>43</v>
+      </c>
+      <c r="X44" s="3">
+        <v>43</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s">
-        <v>366</v>
+        <v>184</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7227,13 +7601,22 @@
       <c r="V45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>44</v>
+      </c>
+      <c r="X45">
+        <v>44</v>
+      </c>
+      <c r="Y45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7292,13 +7675,22 @@
       <c r="V46" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="3">
+        <v>45</v>
+      </c>
+      <c r="X46" s="3">
+        <v>45</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7357,13 +7749,22 @@
       <c r="V47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>46</v>
+      </c>
+      <c r="X47">
+        <v>46</v>
+      </c>
+      <c r="Y47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s">
-        <v>369</v>
+        <v>187</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7422,13 +7823,22 @@
       <c r="V48" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="3">
+        <v>47</v>
+      </c>
+      <c r="X48" s="3">
+        <v>47</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7487,13 +7897,22 @@
       <c r="V49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <v>48</v>
+      </c>
+      <c r="X49">
+        <v>48</v>
+      </c>
+      <c r="Y49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7552,13 +7971,22 @@
       <c r="V50" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="3">
+        <v>49</v>
+      </c>
+      <c r="X50" s="3">
+        <v>49</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s">
-        <v>372</v>
+        <v>190</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7617,13 +8045,22 @@
       <c r="V51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <v>50</v>
+      </c>
+      <c r="X51">
+        <v>50</v>
+      </c>
+      <c r="Y51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7682,13 +8119,22 @@
       <c r="V52" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W52" s="3">
+        <v>51</v>
+      </c>
+      <c r="X52" s="3">
+        <v>51</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s">
-        <v>374</v>
+        <v>192</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7747,13 +8193,22 @@
       <c r="V53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>52</v>
+      </c>
+      <c r="X53">
+        <v>52</v>
+      </c>
+      <c r="Y53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s">
-        <v>375</v>
+        <v>193</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7812,13 +8267,22 @@
       <c r="V54" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W54" s="3">
+        <v>53</v>
+      </c>
+      <c r="X54" s="3">
+        <v>53</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s">
-        <v>376</v>
+        <v>194</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7877,13 +8341,22 @@
       <c r="V55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>54</v>
+      </c>
+      <c r="X55">
+        <v>54</v>
+      </c>
+      <c r="Y55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>197</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7942,13 +8415,22 @@
       <c r="V56" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W56" s="3">
+        <v>55</v>
+      </c>
+      <c r="X56" s="3">
+        <v>55</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s">
-        <v>378</v>
+        <v>196</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8007,13 +8489,22 @@
       <c r="V57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>56</v>
+      </c>
+      <c r="X57">
+        <v>56</v>
+      </c>
+      <c r="Y57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s">
-        <v>379</v>
+        <v>197</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8072,13 +8563,22 @@
       <c r="V58" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W58" s="3">
+        <v>57</v>
+      </c>
+      <c r="X58" s="3">
+        <v>57</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8137,13 +8637,22 @@
       <c r="V59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>58</v>
+      </c>
+      <c r="X59">
+        <v>58</v>
+      </c>
+      <c r="Y59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s">
-        <v>381</v>
+        <v>199</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8202,13 +8711,22 @@
       <c r="V60" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W60" s="3">
+        <v>59</v>
+      </c>
+      <c r="X60" s="3">
+        <v>59</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>380</v>
       </c>
       <c r="B61" t="s">
-        <v>382</v>
+        <v>200</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8267,13 +8785,22 @@
       <c r="V61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <v>60</v>
+      </c>
+      <c r="X61">
+        <v>60</v>
+      </c>
+      <c r="Y61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>381</v>
       </c>
       <c r="B62" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8332,13 +8859,22 @@
       <c r="V62" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W62" s="3">
+        <v>61</v>
+      </c>
+      <c r="X62" s="3">
+        <v>61</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="B63" t="s">
-        <v>384</v>
+        <v>202</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8397,13 +8933,22 @@
       <c r="V63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <v>62</v>
+      </c>
+      <c r="X63">
+        <v>62</v>
+      </c>
+      <c r="Y63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8462,13 +9007,22 @@
       <c r="V64" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W64" s="3">
+        <v>63</v>
+      </c>
+      <c r="X64" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>206</v>
+        <v>384</v>
       </c>
       <c r="B65" t="s">
-        <v>386</v>
+        <v>204</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8527,13 +9081,22 @@
       <c r="V65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>64</v>
+      </c>
+      <c r="X65">
+        <v>64</v>
+      </c>
+      <c r="Y65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>207</v>
+        <v>385</v>
       </c>
       <c r="B66" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8592,13 +9155,22 @@
       <c r="V66" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W66" s="3">
+        <v>65</v>
+      </c>
+      <c r="X66" s="3">
+        <v>65</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>386</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8657,13 +9229,22 @@
       <c r="V67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>66</v>
+      </c>
+      <c r="X67">
+        <v>66</v>
+      </c>
+      <c r="Y67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>209</v>
+        <v>387</v>
       </c>
       <c r="B68" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -8722,13 +9303,22 @@
       <c r="V68" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W68" s="3">
+        <v>67</v>
+      </c>
+      <c r="X68" s="3">
+        <v>67</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>388</v>
       </c>
       <c r="B69" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -8787,13 +9377,22 @@
       <c r="V69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <v>68</v>
+      </c>
+      <c r="X69">
+        <v>68</v>
+      </c>
+      <c r="Y69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -8852,13 +9451,22 @@
       <c r="V70" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W70" s="3">
+        <v>69</v>
+      </c>
+      <c r="X70" s="3">
+        <v>69</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>390</v>
       </c>
       <c r="B71" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -8917,13 +9525,22 @@
       <c r="V71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <v>70</v>
+      </c>
+      <c r="X71">
+        <v>70</v>
+      </c>
+      <c r="Y71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>391</v>
       </c>
       <c r="B72" t="s">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -8982,13 +9599,22 @@
       <c r="V72" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W72" s="3">
+        <v>71</v>
+      </c>
+      <c r="X72" s="3">
+        <v>71</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>392</v>
       </c>
       <c r="B73" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9047,13 +9673,22 @@
       <c r="V73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <v>72</v>
+      </c>
+      <c r="X73">
+        <v>72</v>
+      </c>
+      <c r="Y73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>393</v>
       </c>
       <c r="B74" t="s">
-        <v>395</v>
+        <v>213</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9112,13 +9747,22 @@
       <c r="V74" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W74" s="3">
+        <v>73</v>
+      </c>
+      <c r="X74" s="3">
+        <v>73</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>394</v>
       </c>
       <c r="B75" t="s">
-        <v>396</v>
+        <v>214</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9177,13 +9821,22 @@
       <c r="V75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W75">
+        <v>74</v>
+      </c>
+      <c r="X75">
+        <v>74</v>
+      </c>
+      <c r="Y75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>217</v>
+        <v>395</v>
       </c>
       <c r="B76" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -9242,13 +9895,22 @@
       <c r="V76" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W76" s="3">
+        <v>75</v>
+      </c>
+      <c r="X76" s="3">
+        <v>75</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>396</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>216</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -9307,13 +9969,22 @@
       <c r="V77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <v>76</v>
+      </c>
+      <c r="X77">
+        <v>76</v>
+      </c>
+      <c r="Y77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>219</v>
+        <v>397</v>
       </c>
       <c r="B78" t="s">
-        <v>399</v>
+        <v>217</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -9372,13 +10043,22 @@
       <c r="V78" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W78" s="3">
+        <v>77</v>
+      </c>
+      <c r="X78" s="3">
+        <v>77</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>220</v>
+        <v>398</v>
       </c>
       <c r="B79" t="s">
-        <v>400</v>
+        <v>218</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -9437,13 +10117,22 @@
       <c r="V79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>78</v>
+      </c>
+      <c r="X79">
+        <v>78</v>
+      </c>
+      <c r="Y79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>221</v>
+        <v>399</v>
       </c>
       <c r="B80" t="s">
-        <v>401</v>
+        <v>219</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -9502,13 +10191,22 @@
       <c r="V80" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W80" s="3">
+        <v>79</v>
+      </c>
+      <c r="X80" s="3">
+        <v>79</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="B81" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -9567,13 +10265,22 @@
       <c r="V81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <v>80</v>
+      </c>
+      <c r="X81">
+        <v>80</v>
+      </c>
+      <c r="Y81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>401</v>
       </c>
       <c r="B82" t="s">
-        <v>403</v>
+        <v>221</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -9632,13 +10339,22 @@
       <c r="V82" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W82" s="3">
+        <v>81</v>
+      </c>
+      <c r="X82" s="3">
+        <v>81</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>402</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -9697,13 +10413,22 @@
       <c r="V83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <v>82</v>
+      </c>
+      <c r="X83">
+        <v>82</v>
+      </c>
+      <c r="Y83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="B84" t="s">
-        <v>405</v>
+        <v>223</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -9762,13 +10487,22 @@
       <c r="V84" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W84" s="3">
+        <v>83</v>
+      </c>
+      <c r="X84" s="3">
+        <v>83</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>404</v>
       </c>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -9827,13 +10561,22 @@
       <c r="V85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <v>84</v>
+      </c>
+      <c r="X85">
+        <v>84</v>
+      </c>
+      <c r="Y85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>227</v>
+        <v>405</v>
       </c>
       <c r="B86" t="s">
-        <v>407</v>
+        <v>225</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -9892,13 +10635,22 @@
       <c r="V86" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W86" s="3">
+        <v>85</v>
+      </c>
+      <c r="X86" s="3">
+        <v>85</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>228</v>
+        <v>406</v>
       </c>
       <c r="B87" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -9957,13 +10709,22 @@
       <c r="V87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <v>86</v>
+      </c>
+      <c r="X87">
+        <v>86</v>
+      </c>
+      <c r="Y87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>229</v>
+        <v>407</v>
       </c>
       <c r="B88" t="s">
-        <v>409</v>
+        <v>227</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -10022,13 +10783,22 @@
       <c r="V88" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W88" s="3">
+        <v>87</v>
+      </c>
+      <c r="X88" s="3">
+        <v>87</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>408</v>
       </c>
       <c r="B89" t="s">
-        <v>410</v>
+        <v>228</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -10087,13 +10857,22 @@
       <c r="V89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <v>88</v>
+      </c>
+      <c r="X89">
+        <v>88</v>
+      </c>
+      <c r="Y89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>231</v>
+        <v>409</v>
       </c>
       <c r="B90" t="s">
-        <v>411</v>
+        <v>229</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -10152,13 +10931,22 @@
       <c r="V90" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W90" s="3">
+        <v>89</v>
+      </c>
+      <c r="X90" s="3">
+        <v>89</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="B91" t="s">
-        <v>412</v>
+        <v>230</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -10217,13 +11005,22 @@
       <c r="V91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W91">
+        <v>90</v>
+      </c>
+      <c r="X91">
+        <v>90</v>
+      </c>
+      <c r="Y91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="B92" t="s">
-        <v>413</v>
+        <v>231</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -10282,13 +11079,22 @@
       <c r="V92" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W92" s="3">
+        <v>91</v>
+      </c>
+      <c r="X92" s="3">
+        <v>91</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>234</v>
+        <v>412</v>
       </c>
       <c r="B93" t="s">
-        <v>414</v>
+        <v>232</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -10347,13 +11153,22 @@
       <c r="V93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <v>92</v>
+      </c>
+      <c r="X93">
+        <v>92</v>
+      </c>
+      <c r="Y93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>235</v>
+        <v>413</v>
       </c>
       <c r="B94" t="s">
-        <v>415</v>
+        <v>233</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -10412,13 +11227,22 @@
       <c r="V94" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W94" s="3">
+        <v>93</v>
+      </c>
+      <c r="X94" s="3">
+        <v>93</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>236</v>
+        <v>414</v>
       </c>
       <c r="B95" t="s">
-        <v>416</v>
+        <v>234</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -10477,13 +11301,22 @@
       <c r="V95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <v>94</v>
+      </c>
+      <c r="X95">
+        <v>94</v>
+      </c>
+      <c r="Y95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>237</v>
+        <v>415</v>
       </c>
       <c r="B96" t="s">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -10542,13 +11375,22 @@
       <c r="V96" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W96" s="3">
+        <v>95</v>
+      </c>
+      <c r="X96" s="3">
+        <v>95</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>238</v>
+        <v>416</v>
       </c>
       <c r="B97" t="s">
-        <v>418</v>
+        <v>236</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -10607,13 +11449,22 @@
       <c r="V97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W97">
+        <v>96</v>
+      </c>
+      <c r="X97">
+        <v>96</v>
+      </c>
+      <c r="Y97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>239</v>
+        <v>417</v>
       </c>
       <c r="B98" t="s">
-        <v>419</v>
+        <v>237</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -10672,13 +11523,22 @@
       <c r="V98" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W98" s="3">
+        <v>97</v>
+      </c>
+      <c r="X98" s="3">
+        <v>97</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>240</v>
+        <v>418</v>
       </c>
       <c r="B99" t="s">
-        <v>420</v>
+        <v>238</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -10737,13 +11597,22 @@
       <c r="V99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <v>98</v>
+      </c>
+      <c r="X99">
+        <v>98</v>
+      </c>
+      <c r="Y99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>241</v>
+        <v>419</v>
       </c>
       <c r="B100" t="s">
-        <v>421</v>
+        <v>239</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -10802,13 +11671,22 @@
       <c r="V100" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W100" s="3">
+        <v>99</v>
+      </c>
+      <c r="X100" s="3">
+        <v>99</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>420</v>
       </c>
       <c r="B101" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -10867,13 +11745,22 @@
       <c r="V101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W101">
+        <v>100</v>
+      </c>
+      <c r="X101">
+        <v>100</v>
+      </c>
+      <c r="Y101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>241</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -10932,13 +11819,22 @@
       <c r="V102" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W102" s="3">
+        <v>101</v>
+      </c>
+      <c r="X102" s="3">
+        <v>101</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>244</v>
+        <v>421</v>
       </c>
       <c r="B103" t="s">
-        <v>424</v>
+        <v>242</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -10997,13 +11893,22 @@
       <c r="V103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W103">
+        <v>102</v>
+      </c>
+      <c r="X103">
+        <v>102</v>
+      </c>
+      <c r="Y103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>245</v>
+        <v>422</v>
       </c>
       <c r="B104" t="s">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -11062,13 +11967,22 @@
       <c r="V104" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W104" s="3">
+        <v>103</v>
+      </c>
+      <c r="X104" s="3">
+        <v>103</v>
+      </c>
+      <c r="Y104" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>423</v>
       </c>
       <c r="B105" t="s">
-        <v>426</v>
+        <v>244</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -11127,13 +12041,22 @@
       <c r="V105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W105">
+        <v>104</v>
+      </c>
+      <c r="X105">
+        <v>104</v>
+      </c>
+      <c r="Y105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="B106" t="s">
-        <v>427</v>
+        <v>245</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -11192,13 +12115,22 @@
       <c r="V106" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W106" s="3">
+        <v>105</v>
+      </c>
+      <c r="X106" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y106" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>248</v>
+        <v>424</v>
       </c>
       <c r="B107" t="s">
-        <v>428</v>
+        <v>246</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -11257,13 +12189,22 @@
       <c r="V107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W107">
+        <v>106</v>
+      </c>
+      <c r="X107">
+        <v>106</v>
+      </c>
+      <c r="Y107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>249</v>
+        <v>425</v>
       </c>
       <c r="B108" t="s">
-        <v>429</v>
+        <v>247</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -11322,13 +12263,22 @@
       <c r="V108" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W108" s="3">
+        <v>107</v>
+      </c>
+      <c r="X108" s="3">
+        <v>107</v>
+      </c>
+      <c r="Y108" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>250</v>
+        <v>426</v>
       </c>
       <c r="B109" t="s">
-        <v>430</v>
+        <v>248</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -11387,13 +12337,22 @@
       <c r="V109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W109">
+        <v>108</v>
+      </c>
+      <c r="X109">
+        <v>108</v>
+      </c>
+      <c r="Y109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>251</v>
+        <v>427</v>
       </c>
       <c r="B110" t="s">
-        <v>431</v>
+        <v>249</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -11452,13 +12411,22 @@
       <c r="V110" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W110" s="3">
+        <v>109</v>
+      </c>
+      <c r="X110" s="3">
+        <v>109</v>
+      </c>
+      <c r="Y110" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>252</v>
+        <v>428</v>
       </c>
       <c r="B111" t="s">
-        <v>432</v>
+        <v>250</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -11517,13 +12485,22 @@
       <c r="V111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W111">
+        <v>110</v>
+      </c>
+      <c r="X111">
+        <v>110</v>
+      </c>
+      <c r="Y111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="B112" t="s">
-        <v>433</v>
+        <v>251</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -11582,13 +12559,22 @@
       <c r="V112" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W112" s="3">
+        <v>111</v>
+      </c>
+      <c r="X112" s="3">
+        <v>111</v>
+      </c>
+      <c r="Y112" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="B113" t="s">
-        <v>434</v>
+        <v>252</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -11647,13 +12633,22 @@
       <c r="V113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W113">
+        <v>112</v>
+      </c>
+      <c r="X113">
+        <v>112</v>
+      </c>
+      <c r="Y113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="B114" t="s">
-        <v>435</v>
+        <v>253</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -11712,13 +12707,22 @@
       <c r="V114" s="3">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W114" s="3">
+        <v>113</v>
+      </c>
+      <c r="X114" s="3">
+        <v>113</v>
+      </c>
+      <c r="Y114" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="B115" t="s">
-        <v>436</v>
+        <v>254</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -11777,13 +12781,22 @@
       <c r="V115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W115">
+        <v>114</v>
+      </c>
+      <c r="X115">
+        <v>114</v>
+      </c>
+      <c r="Y115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>257</v>
+        <v>433</v>
       </c>
       <c r="B116" t="s">
-        <v>437</v>
+        <v>255</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -11842,13 +12855,22 @@
       <c r="V116" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W116" s="3">
+        <v>115</v>
+      </c>
+      <c r="X116" s="3">
+        <v>115</v>
+      </c>
+      <c r="Y116" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>258</v>
+        <v>434</v>
       </c>
       <c r="B117" t="s">
-        <v>438</v>
+        <v>256</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -11907,13 +12929,22 @@
       <c r="V117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W117">
+        <v>116</v>
+      </c>
+      <c r="X117">
+        <v>116</v>
+      </c>
+      <c r="Y117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>259</v>
+        <v>435</v>
       </c>
       <c r="B118" t="s">
-        <v>439</v>
+        <v>257</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -11972,13 +13003,22 @@
       <c r="V118" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W118" s="3">
+        <v>117</v>
+      </c>
+      <c r="X118" s="3">
+        <v>117</v>
+      </c>
+      <c r="Y118" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>260</v>
+        <v>436</v>
       </c>
       <c r="B119" t="s">
-        <v>440</v>
+        <v>258</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -12037,13 +13077,22 @@
       <c r="V119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W119">
+        <v>118</v>
+      </c>
+      <c r="X119">
+        <v>118</v>
+      </c>
+      <c r="Y119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>261</v>
+        <v>437</v>
       </c>
       <c r="B120" t="s">
-        <v>441</v>
+        <v>259</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -12102,13 +13151,22 @@
       <c r="V120" s="3">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W120" s="3">
+        <v>119</v>
+      </c>
+      <c r="X120" s="3">
+        <v>119</v>
+      </c>
+      <c r="Y120" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>262</v>
+        <v>438</v>
       </c>
       <c r="B121" t="s">
-        <v>442</v>
+        <v>260</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -12167,13 +13225,22 @@
       <c r="V121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W121">
+        <v>120</v>
+      </c>
+      <c r="X121">
+        <v>120</v>
+      </c>
+      <c r="Y121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>439</v>
       </c>
       <c r="B122" t="s">
-        <v>443</v>
+        <v>261</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -12232,13 +13299,22 @@
       <c r="V122" s="3">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W122" s="3">
+        <v>121</v>
+      </c>
+      <c r="X122" s="3">
+        <v>121</v>
+      </c>
+      <c r="Y122" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>264</v>
+        <v>440</v>
       </c>
       <c r="B123" t="s">
-        <v>444</v>
+        <v>262</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -12297,13 +13373,22 @@
       <c r="V123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W123">
+        <v>122</v>
+      </c>
+      <c r="X123">
+        <v>122</v>
+      </c>
+      <c r="Y123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>265</v>
+        <v>441</v>
       </c>
       <c r="B124" t="s">
-        <v>445</v>
+        <v>263</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -12362,13 +13447,22 @@
       <c r="V124" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W124" s="3">
+        <v>123</v>
+      </c>
+      <c r="X124" s="3">
+        <v>123</v>
+      </c>
+      <c r="Y124" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="B125" t="s">
-        <v>446</v>
+        <v>264</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -12427,13 +13521,22 @@
       <c r="V125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W125">
+        <v>124</v>
+      </c>
+      <c r="X125">
+        <v>124</v>
+      </c>
+      <c r="Y125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>267</v>
+        <v>443</v>
       </c>
       <c r="B126" t="s">
-        <v>447</v>
+        <v>265</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -12492,13 +13595,22 @@
       <c r="V126" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W126" s="3">
+        <v>125</v>
+      </c>
+      <c r="X126" s="3">
+        <v>125</v>
+      </c>
+      <c r="Y126" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>268</v>
+        <v>444</v>
       </c>
       <c r="B127" t="s">
-        <v>448</v>
+        <v>266</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -12557,13 +13669,22 @@
       <c r="V127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W127">
+        <v>126</v>
+      </c>
+      <c r="X127">
+        <v>126</v>
+      </c>
+      <c r="Y127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>269</v>
+        <v>445</v>
       </c>
       <c r="B128" t="s">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -12622,13 +13743,22 @@
       <c r="V128" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W128" s="3">
+        <v>127</v>
+      </c>
+      <c r="X128" s="3">
+        <v>127</v>
+      </c>
+      <c r="Y128" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>270</v>
+        <v>446</v>
       </c>
       <c r="B129" t="s">
-        <v>450</v>
+        <v>268</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -12687,13 +13817,22 @@
       <c r="V129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W129">
+        <v>128</v>
+      </c>
+      <c r="X129">
+        <v>128</v>
+      </c>
+      <c r="Y129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>271</v>
+        <v>447</v>
       </c>
       <c r="B130" t="s">
-        <v>451</v>
+        <v>269</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -12752,13 +13891,22 @@
       <c r="V130" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W130" s="3">
+        <v>129</v>
+      </c>
+      <c r="X130" s="3">
+        <v>129</v>
+      </c>
+      <c r="Y130" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>272</v>
+        <v>448</v>
       </c>
       <c r="B131" t="s">
-        <v>452</v>
+        <v>270</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -12817,13 +13965,22 @@
       <c r="V131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W131">
+        <v>130</v>
+      </c>
+      <c r="X131">
+        <v>130</v>
+      </c>
+      <c r="Y131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="B132" t="s">
-        <v>453</v>
+        <v>271</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -12882,13 +14039,22 @@
       <c r="V132" s="3">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W132" s="3">
+        <v>131</v>
+      </c>
+      <c r="X132" s="3">
+        <v>131</v>
+      </c>
+      <c r="Y132" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>450</v>
       </c>
       <c r="B133" t="s">
-        <v>454</v>
+        <v>272</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -12947,13 +14113,22 @@
       <c r="V133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W133">
+        <v>132</v>
+      </c>
+      <c r="X133">
+        <v>132</v>
+      </c>
+      <c r="Y133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>275</v>
+        <v>451</v>
       </c>
       <c r="B134" t="s">
-        <v>455</v>
+        <v>273</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -13012,13 +14187,22 @@
       <c r="V134" s="3">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W134" s="3">
+        <v>133</v>
+      </c>
+      <c r="X134" s="3">
+        <v>133</v>
+      </c>
+      <c r="Y134" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>452</v>
       </c>
       <c r="B135" t="s">
-        <v>456</v>
+        <v>274</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -13077,13 +14261,22 @@
       <c r="V135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W135">
+        <v>134</v>
+      </c>
+      <c r="X135">
+        <v>134</v>
+      </c>
+      <c r="Y135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>277</v>
+        <v>453</v>
       </c>
       <c r="B136" t="s">
-        <v>457</v>
+        <v>275</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -13142,13 +14335,22 @@
       <c r="V136" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W136" s="3">
+        <v>135</v>
+      </c>
+      <c r="X136" s="3">
+        <v>135</v>
+      </c>
+      <c r="Y136" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>278</v>
+        <v>454</v>
       </c>
       <c r="B137" t="s">
-        <v>458</v>
+        <v>276</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -13207,13 +14409,22 @@
       <c r="V137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W137">
+        <v>136</v>
+      </c>
+      <c r="X137">
+        <v>136</v>
+      </c>
+      <c r="Y137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>279</v>
+        <v>455</v>
       </c>
       <c r="B138" t="s">
-        <v>459</v>
+        <v>277</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -13272,13 +14483,22 @@
       <c r="V138" s="3">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W138" s="3">
+        <v>137</v>
+      </c>
+      <c r="X138" s="3">
+        <v>137</v>
+      </c>
+      <c r="Y138" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="B139" t="s">
-        <v>460</v>
+        <v>278</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -13337,13 +14557,22 @@
       <c r="V139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W139">
+        <v>138</v>
+      </c>
+      <c r="X139">
+        <v>138</v>
+      </c>
+      <c r="Y139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>457</v>
       </c>
       <c r="B140" t="s">
-        <v>461</v>
+        <v>279</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -13402,13 +14631,22 @@
       <c r="V140" s="3">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W140" s="3">
+        <v>139</v>
+      </c>
+      <c r="X140" s="3">
+        <v>139</v>
+      </c>
+      <c r="Y140" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>458</v>
       </c>
       <c r="B141" t="s">
-        <v>462</v>
+        <v>280</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -13467,13 +14705,22 @@
       <c r="V141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W141">
+        <v>140</v>
+      </c>
+      <c r="X141">
+        <v>140</v>
+      </c>
+      <c r="Y141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>459</v>
       </c>
       <c r="B142" t="s">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -13532,13 +14779,22 @@
       <c r="V142" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W142" s="3">
+        <v>141</v>
+      </c>
+      <c r="X142" s="3">
+        <v>141</v>
+      </c>
+      <c r="Y142" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>460</v>
       </c>
       <c r="B143" t="s">
-        <v>464</v>
+        <v>282</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -13597,13 +14853,22 @@
       <c r="V143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W143">
+        <v>142</v>
+      </c>
+      <c r="X143">
+        <v>142</v>
+      </c>
+      <c r="Y143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>285</v>
+        <v>461</v>
       </c>
       <c r="B144" t="s">
-        <v>465</v>
+        <v>283</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -13662,13 +14927,22 @@
       <c r="V144" s="3">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W144" s="3">
+        <v>143</v>
+      </c>
+      <c r="X144" s="3">
+        <v>143</v>
+      </c>
+      <c r="Y144" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>462</v>
       </c>
       <c r="B145" t="s">
-        <v>466</v>
+        <v>284</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -13727,13 +15001,22 @@
       <c r="V145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W145">
+        <v>144</v>
+      </c>
+      <c r="X145">
+        <v>144</v>
+      </c>
+      <c r="Y145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>463</v>
       </c>
       <c r="B146" t="s">
-        <v>467</v>
+        <v>285</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -13792,13 +15075,22 @@
       <c r="V146" s="3">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W146" s="3">
+        <v>145</v>
+      </c>
+      <c r="X146" s="3">
+        <v>145</v>
+      </c>
+      <c r="Y146" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>288</v>
+        <v>464</v>
       </c>
       <c r="B147" t="s">
-        <v>468</v>
+        <v>286</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -13857,13 +15149,22 @@
       <c r="V147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W147">
+        <v>146</v>
+      </c>
+      <c r="X147">
+        <v>146</v>
+      </c>
+      <c r="Y147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>289</v>
+        <v>465</v>
       </c>
       <c r="B148" t="s">
-        <v>469</v>
+        <v>287</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -13922,13 +15223,22 @@
       <c r="V148" s="3">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W148" s="3">
+        <v>147</v>
+      </c>
+      <c r="X148" s="3">
+        <v>147</v>
+      </c>
+      <c r="Y148" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="B149" t="s">
-        <v>470</v>
+        <v>288</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -13987,13 +15297,22 @@
       <c r="V149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W149">
+        <v>148</v>
+      </c>
+      <c r="X149">
+        <v>148</v>
+      </c>
+      <c r="Y149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>291</v>
+        <v>467</v>
       </c>
       <c r="B150" t="s">
-        <v>471</v>
+        <v>289</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -14052,13 +15371,22 @@
       <c r="V150" s="3">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W150" s="3">
+        <v>149</v>
+      </c>
+      <c r="X150" s="3">
+        <v>149</v>
+      </c>
+      <c r="Y150" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>292</v>
+        <v>468</v>
       </c>
       <c r="B151" t="s">
-        <v>472</v>
+        <v>290</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -14117,13 +15445,22 @@
       <c r="V151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W151">
+        <v>150</v>
+      </c>
+      <c r="X151">
+        <v>150</v>
+      </c>
+      <c r="Y151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>293</v>
+        <v>469</v>
       </c>
       <c r="B152" t="s">
-        <v>473</v>
+        <v>291</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -14182,13 +15519,22 @@
       <c r="V152" s="3">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W152" s="3">
+        <v>151</v>
+      </c>
+      <c r="X152" s="3">
+        <v>151</v>
+      </c>
+      <c r="Y152" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>294</v>
+        <v>470</v>
       </c>
       <c r="B153" t="s">
-        <v>474</v>
+        <v>292</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -14247,13 +15593,22 @@
       <c r="V153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W153">
+        <v>152</v>
+      </c>
+      <c r="X153">
+        <v>152</v>
+      </c>
+      <c r="Y153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>295</v>
+        <v>471</v>
       </c>
       <c r="B154" t="s">
-        <v>475</v>
+        <v>293</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -14312,13 +15667,22 @@
       <c r="V154" s="3">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W154" s="3">
+        <v>153</v>
+      </c>
+      <c r="X154" s="3">
+        <v>153</v>
+      </c>
+      <c r="Y154" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>296</v>
+        <v>472</v>
       </c>
       <c r="B155" t="s">
-        <v>476</v>
+        <v>294</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -14377,13 +15741,22 @@
       <c r="V155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W155">
+        <v>154</v>
+      </c>
+      <c r="X155">
+        <v>154</v>
+      </c>
+      <c r="Y155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>297</v>
+        <v>473</v>
       </c>
       <c r="B156" t="s">
-        <v>477</v>
+        <v>295</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -14442,13 +15815,22 @@
       <c r="V156" s="3">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W156" s="3">
+        <v>155</v>
+      </c>
+      <c r="X156" s="3">
+        <v>155</v>
+      </c>
+      <c r="Y156" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>298</v>
+        <v>474</v>
       </c>
       <c r="B157" t="s">
-        <v>478</v>
+        <v>296</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -14507,13 +15889,22 @@
       <c r="V157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W157">
+        <v>156</v>
+      </c>
+      <c r="X157">
+        <v>156</v>
+      </c>
+      <c r="Y157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>299</v>
+        <v>475</v>
       </c>
       <c r="B158" t="s">
-        <v>479</v>
+        <v>297</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -14572,13 +15963,22 @@
       <c r="V158" s="3">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W158" s="3">
+        <v>157</v>
+      </c>
+      <c r="X158" s="3">
+        <v>157</v>
+      </c>
+      <c r="Y158" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>300</v>
+        <v>476</v>
       </c>
       <c r="B159" t="s">
-        <v>480</v>
+        <v>298</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -14637,13 +16037,22 @@
       <c r="V159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W159">
+        <v>158</v>
+      </c>
+      <c r="X159">
+        <v>158</v>
+      </c>
+      <c r="Y159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>301</v>
+        <v>477</v>
       </c>
       <c r="B160" t="s">
-        <v>481</v>
+        <v>299</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -14702,13 +16111,22 @@
       <c r="V160" s="3">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W160" s="3">
+        <v>159</v>
+      </c>
+      <c r="X160" s="3">
+        <v>159</v>
+      </c>
+      <c r="Y160" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>302</v>
+        <v>478</v>
       </c>
       <c r="B161" t="s">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -14767,13 +16185,22 @@
       <c r="V161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W161">
+        <v>160</v>
+      </c>
+      <c r="X161">
+        <v>160</v>
+      </c>
+      <c r="Y161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>303</v>
+        <v>479</v>
       </c>
       <c r="B162" t="s">
-        <v>483</v>
+        <v>301</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -14832,13 +16259,22 @@
       <c r="V162" s="3">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W162" s="3">
+        <v>161</v>
+      </c>
+      <c r="X162" s="3">
+        <v>161</v>
+      </c>
+      <c r="Y162" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>304</v>
+        <v>480</v>
       </c>
       <c r="B163" t="s">
-        <v>484</v>
+        <v>302</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -14897,13 +16333,22 @@
       <c r="V163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W163">
+        <v>162</v>
+      </c>
+      <c r="X163">
+        <v>162</v>
+      </c>
+      <c r="Y163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>305</v>
+        <v>481</v>
       </c>
       <c r="B164" t="s">
-        <v>485</v>
+        <v>303</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -14962,13 +16407,22 @@
       <c r="V164" s="3">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W164" s="3">
+        <v>163</v>
+      </c>
+      <c r="X164" s="3">
+        <v>163</v>
+      </c>
+      <c r="Y164" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>306</v>
+        <v>482</v>
       </c>
       <c r="B165" t="s">
-        <v>486</v>
+        <v>304</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -15027,13 +16481,22 @@
       <c r="V165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W165">
+        <v>164</v>
+      </c>
+      <c r="X165">
+        <v>164</v>
+      </c>
+      <c r="Y165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>307</v>
+        <v>483</v>
       </c>
       <c r="B166" t="s">
-        <v>487</v>
+        <v>305</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -15092,13 +16555,22 @@
       <c r="V166" s="3">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W166" s="3">
+        <v>165</v>
+      </c>
+      <c r="X166" s="3">
+        <v>165</v>
+      </c>
+      <c r="Y166" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>308</v>
+        <v>484</v>
       </c>
       <c r="B167" t="s">
-        <v>488</v>
+        <v>306</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -15157,13 +16629,22 @@
       <c r="V167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W167">
+        <v>166</v>
+      </c>
+      <c r="X167">
+        <v>166</v>
+      </c>
+      <c r="Y167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>309</v>
+        <v>485</v>
       </c>
       <c r="B168" t="s">
-        <v>489</v>
+        <v>307</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -15222,13 +16703,22 @@
       <c r="V168" s="3">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W168" s="3">
+        <v>167</v>
+      </c>
+      <c r="X168" s="3">
+        <v>167</v>
+      </c>
+      <c r="Y168" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>310</v>
+        <v>486</v>
       </c>
       <c r="B169" t="s">
-        <v>490</v>
+        <v>308</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -15287,13 +16777,22 @@
       <c r="V169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W169">
+        <v>168</v>
+      </c>
+      <c r="X169">
+        <v>168</v>
+      </c>
+      <c r="Y169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>311</v>
+        <v>487</v>
       </c>
       <c r="B170" t="s">
-        <v>491</v>
+        <v>309</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -15352,13 +16851,22 @@
       <c r="V170" s="3">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W170" s="3">
+        <v>169</v>
+      </c>
+      <c r="X170" s="3">
+        <v>169</v>
+      </c>
+      <c r="Y170" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>312</v>
+        <v>488</v>
       </c>
       <c r="B171" t="s">
-        <v>492</v>
+        <v>310</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -15417,13 +16925,22 @@
       <c r="V171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W171">
+        <v>170</v>
+      </c>
+      <c r="X171">
+        <v>170</v>
+      </c>
+      <c r="Y171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>313</v>
+        <v>489</v>
       </c>
       <c r="B172" t="s">
-        <v>493</v>
+        <v>311</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -15482,13 +16999,22 @@
       <c r="V172" s="3">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W172" s="3">
+        <v>171</v>
+      </c>
+      <c r="X172" s="3">
+        <v>171</v>
+      </c>
+      <c r="Y172" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>314</v>
+        <v>490</v>
       </c>
       <c r="B173" t="s">
-        <v>494</v>
+        <v>312</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -15547,13 +17073,22 @@
       <c r="V173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W173">
+        <v>172</v>
+      </c>
+      <c r="X173">
+        <v>172</v>
+      </c>
+      <c r="Y173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>315</v>
+        <v>491</v>
       </c>
       <c r="B174" t="s">
-        <v>495</v>
+        <v>313</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -15612,13 +17147,22 @@
       <c r="V174" s="3">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W174" s="3">
+        <v>173</v>
+      </c>
+      <c r="X174" s="3">
+        <v>173</v>
+      </c>
+      <c r="Y174" s="3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>316</v>
+        <v>492</v>
       </c>
       <c r="B175" t="s">
-        <v>496</v>
+        <v>314</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -15677,13 +17221,22 @@
       <c r="V175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W175">
+        <v>174</v>
+      </c>
+      <c r="X175">
+        <v>174</v>
+      </c>
+      <c r="Y175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>317</v>
+        <v>493</v>
       </c>
       <c r="B176" t="s">
-        <v>497</v>
+        <v>315</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -15742,13 +17295,22 @@
       <c r="V176" s="3">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W176" s="3">
+        <v>175</v>
+      </c>
+      <c r="X176" s="3">
+        <v>175</v>
+      </c>
+      <c r="Y176" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="B177" t="s">
-        <v>498</v>
+        <v>316</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -15807,13 +17369,22 @@
       <c r="V177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W177">
+        <v>176</v>
+      </c>
+      <c r="X177">
+        <v>176</v>
+      </c>
+      <c r="Y177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>319</v>
+        <v>495</v>
       </c>
       <c r="B178" t="s">
-        <v>499</v>
+        <v>317</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -15872,13 +17443,22 @@
       <c r="V178" s="3">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W178" s="3">
+        <v>177</v>
+      </c>
+      <c r="X178" s="3">
+        <v>177</v>
+      </c>
+      <c r="Y178" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>320</v>
+        <v>496</v>
       </c>
       <c r="B179" t="s">
-        <v>500</v>
+        <v>318</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -15937,13 +17517,22 @@
       <c r="V179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W179">
+        <v>178</v>
+      </c>
+      <c r="X179">
+        <v>178</v>
+      </c>
+      <c r="Y179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>321</v>
+        <v>497</v>
       </c>
       <c r="B180" t="s">
-        <v>501</v>
+        <v>319</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -16002,13 +17591,22 @@
       <c r="V180" s="3">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W180" s="3">
+        <v>179</v>
+      </c>
+      <c r="X180" s="3">
+        <v>179</v>
+      </c>
+      <c r="Y180" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>322</v>
+        <v>498</v>
       </c>
       <c r="B181" t="s">
-        <v>502</v>
+        <v>320</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -16067,13 +17665,22 @@
       <c r="V181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W181">
+        <v>180</v>
+      </c>
+      <c r="X181">
+        <v>180</v>
+      </c>
+      <c r="Y181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>323</v>
+        <v>499</v>
       </c>
       <c r="B182" t="s">
-        <v>503</v>
+        <v>321</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -16132,13 +17739,22 @@
       <c r="V182" s="3">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W182" s="3">
+        <v>181</v>
+      </c>
+      <c r="X182" s="3">
+        <v>181</v>
+      </c>
+      <c r="Y182" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>324</v>
+        <v>500</v>
       </c>
       <c r="B183" t="s">
-        <v>504</v>
+        <v>322</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -16195,6 +17811,15 @@
         <v>182</v>
       </c>
       <c r="V183">
+        <v>182</v>
+      </c>
+      <c r="W183">
+        <v>182</v>
+      </c>
+      <c r="X183">
+        <v>182</v>
+      </c>
+      <c r="Y183">
         <v>182</v>
       </c>
     </row>
@@ -16219,7 +17844,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>323</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>128</v>
@@ -16231,7 +17856,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -16239,7 +17864,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>507</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -16247,7 +17872,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>508</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
